--- a/src/test/resources/test.xlsx
+++ b/src/test/resources/test.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/magina/IdeaProjects/stream-xlsx/src/test/resources/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/magina/IdeaProjects/fn-xlsx/src/test/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1360" yWindow="600" windowWidth="24240" windowHeight="13740" tabRatio="500"/>
+    <workbookView xWindow="11440" yWindow="460" windowWidth="35700" windowHeight="14880" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="test" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="27">
   <si>
     <t>主合同编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -125,6 +125,14 @@
   </si>
   <si>
     <t xml:space="preserve"> Text/ Tex /Ac / 重排 ／1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Number Null</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LocalDate3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -132,9 +140,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="176" formatCode="0.00;[Red]0.00"/>
     <numFmt numFmtId="177" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
+    <numFmt numFmtId="178" formatCode="0;[Red]0"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -233,7 +242,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -272,6 +281,12 @@
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -553,13 +568,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q11"/>
+  <dimension ref="A1:S9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="C13" sqref="C13"/>
+      <selection pane="bottomRight" activeCell="A4" sqref="A4:XFD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -569,8 +584,11 @@
     <col min="3" max="3" width="27.5" style="5" customWidth="1"/>
     <col min="4" max="4" width="26.5" style="4" customWidth="1"/>
     <col min="5" max="5" width="22" style="4" customWidth="1"/>
-    <col min="6" max="6" width="9" style="1" customWidth="1"/>
-    <col min="7" max="12" width="9" style="1"/>
+    <col min="6" max="6" width="21.1640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="24.6640625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="23.83203125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="30.83203125" style="1" customWidth="1"/>
+    <col min="10" max="12" width="9" style="1"/>
     <col min="13" max="13" width="35.33203125" style="1" customWidth="1"/>
     <col min="14" max="14" width="25.83203125" style="1" customWidth="1"/>
     <col min="15" max="15" width="23.6640625" style="1" customWidth="1"/>
@@ -578,7 +596,7 @@
     <col min="17" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -589,7 +607,7 @@
       <c r="D1" s="6"/>
       <c r="E1" s="6"/>
     </row>
-    <row r="2" spans="1:17" ht="48" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:19" ht="48" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>10</v>
       </c>
@@ -602,47 +620,53 @@
       <c r="D2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="E2" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F2" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="G2" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="H2" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="I2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="L2" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="M2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="N2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="O2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="N2" s="13" t="s">
+      <c r="P2" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="O2" s="1" t="s">
+      <c r="Q2" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="P2" s="1" t="s">
+      <c r="R2" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="Q2" s="1" t="s">
+      <c r="S2" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:17" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:19" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>9</v>
       </c>
@@ -655,85 +679,69 @@
       <c r="D3" s="11">
         <v>10</v>
       </c>
-      <c r="E3" s="10">
+      <c r="E3" s="14"/>
+      <c r="F3" s="10">
         <v>42736</v>
       </c>
-      <c r="F3" s="12">
+      <c r="G3" s="12">
         <v>42736</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="H3" s="12"/>
+      <c r="I3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="J3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="K3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="J3" s="1" t="s">
+      <c r="L3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="K3" s="1" t="s">
+      <c r="M3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="L3" s="1" t="s">
+      <c r="N3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="M3" s="1" t="s">
+      <c r="O3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="N3" s="13" t="s">
+      <c r="P3" s="13" t="s">
         <v>20</v>
-      </c>
-      <c r="O3" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="P3" s="1" t="s">
-        <v>19</v>
       </c>
       <c r="Q3" s="1" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="B4" s="4"/>
-      <c r="D4" s="10"/>
-      <c r="E4" s="1"/>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="S3" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="C4" s="10"/>
+      <c r="E4" s="15"/>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C5" s="10"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="E5" s="15"/>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C6" s="10"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="E6" s="15"/>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="10"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="C8" s="10"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="C9" s="10"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="C10" s="10"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="C11" s="10"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
+      <c r="E7" s="15"/>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="E8" s="15"/>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="E9" s="15"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
